--- a/bots/crawl_ch/output/electronics_2022-08-01.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-01.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4439,34 +4439,36 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4475,12 +4477,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>3.74/1ST</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4490,7 +4492,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4500,60 +4502,60 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3.74/1ST</t>
+          <t>5.95/1ST</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4563,7 +4565,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4573,60 +4575,58 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>5.95/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4651,12 +4651,12 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4729,29 +4729,29 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4760,17 +4760,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4790,39 +4790,39 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4831,17 +4831,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4861,17 +4861,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:09</t>
+          <t>2022-08-01 21:00:12</t>
         </is>
       </c>
     </row>
